--- a/data/trans_dic/IP2907_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2907_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,51; 23,66</t>
+          <t>13,81; 23,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,81; 22,06</t>
+          <t>14,64; 24,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,3; 22,19</t>
+          <t>15,2; 21,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>18,43%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>18,83%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,81; 23,75</t>
+          <t>15,51; 23,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,64; 24,04</t>
+          <t>14,81; 22,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 21,64</t>
+          <t>16,3; 22,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2907_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2907_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>22,55%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,09; 29,53</t>
+          <t>16,09; 35,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,84; 27,9</t>
+          <t>12,77; 30,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,33; 26,91</t>
+          <t>16,87; 30,38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>18,75%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,81; 23,75</t>
+          <t>14,78; 23,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,64; 24,04</t>
+          <t>13,69; 22,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,2; 21,64</t>
+          <t>15,64; 22,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>19,26%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,51; 23,66</t>
+          <t>14,73; 25,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,81; 22,06</t>
+          <t>13,93; 24,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 22,19</t>
+          <t>15,72; 23,16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>18,93%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,82; 22,29</t>
+          <t>13,85; 24,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,7; 21,94</t>
+          <t>15,26; 24,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,3; 21,36</t>
+          <t>15,9; 22,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19,42%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19,01%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16,69; 22,6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16,33; 21,42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17,47; 21,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/IP2907_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2907_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,09; 35,93</t>
+          <t>16,51; 35,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,77; 30,29</t>
+          <t>12,43; 29,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,87; 30,38</t>
+          <t>16,31; 29,88</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,78; 23,97</t>
+          <t>14,5; 24,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,69; 22,88</t>
+          <t>14,33; 23,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,64; 22,6</t>
+          <t>15,31; 22,09</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,73; 25,26</t>
+          <t>14,63; 25,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,93; 24,43</t>
+          <t>14,29; 24,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,72; 23,16</t>
+          <t>15,8; 23,19</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,85; 24,07</t>
+          <t>13,59; 24,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,26; 24,08</t>
+          <t>15,05; 23,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,9; 22,59</t>
+          <t>15,97; 22,68</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,69; 22,6</t>
+          <t>16,78; 22,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,33; 21,42</t>
+          <t>16,53; 21,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,47; 21,38</t>
+          <t>17,3; 21,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2907_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2907_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>23,1%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,51; 35,35</t>
+          <t>13,54; 31,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,43; 29,32</t>
+          <t>16,2; 38,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,31; 29,88</t>
+          <t>16,86; 30,78</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>18,83%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 24,5</t>
+          <t>14,09; 23,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,33; 23,49</t>
+          <t>14,6; 24,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,31; 22,09</t>
+          <t>15,34; 22,41</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>19,29%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,63; 25,13</t>
+          <t>14,36; 25,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,29; 24,2</t>
+          <t>14,63; 24,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,8; 23,19</t>
+          <t>16,02; 23,22</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>19,43%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>19,31%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>18,93%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,59; 24,56</t>
+          <t>14,43; 23,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,05; 23,73</t>
+          <t>14,56; 26,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,97; 22,68</t>
+          <t>15,9; 23,48</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>19,44%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,78; 22,38</t>
+          <t>16,75; 22,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,53; 21,86</t>
+          <t>17,02; 23,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,3; 21,2</t>
+          <t>17,55; 21,82</t>
         </is>
       </c>
     </row>
